--- a/HuaWeiLoadBox/document/通信协议华为负载箱v1.2.xlsx
+++ b/HuaWeiLoadBox/document/通信协议华为负载箱v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="屏幕发送到单片机、上位机" sheetId="1" r:id="rId1"/>
@@ -1188,12 +1188,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,28 +1239,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -1269,7 +1247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1284,56 +1262,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1354,7 +1286,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,9 +1321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1387,6 +1340,46 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1435,55 +1428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,7 +1446,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,7 +1494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,13 +1512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,7 +1530,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,25 +1566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,37 +1584,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,17 +1727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1764,22 +1746,40 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1801,181 +1801,174 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2414,7 +2407,7 @@
   <sheetPr/>
   <dimension ref="A3:DR288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -16254,8 +16247,8 @@
   <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/HuaWeiLoadBox/document/通信协议华为负载箱v1.2.xlsx
+++ b/HuaWeiLoadBox/document/通信协议华为负载箱v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12015" activeTab="1"/>
+    <workbookView windowWidth="27495" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="屏幕发送到单片机、上位机" sheetId="1" r:id="rId1"/>
@@ -1188,8 +1188,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1239,23 +1239,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1269,38 +1270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1309,20 +1281,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1345,23 +1303,58 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,17 +1362,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1428,13 +1428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,37 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,19 +1482,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,37 +1566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,37 +1596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,26 +1727,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1768,6 +1768,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1779,7 +1805,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1798,42 +1824,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1842,133 +1842,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16247,8 +16247,8 @@
   <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
